--- a/data/trans_orig/P50A_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P50A_1-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>11718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6867</v>
+        <v>6757</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20498</v>
+        <v>19566</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02666186381343225</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01562463458649341</v>
+        <v>0.01537368654506213</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04663994724622422</v>
+        <v>0.04451746025028078</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -763,19 +763,19 @@
         <v>13850</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7829</v>
+        <v>7844</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22797</v>
+        <v>22263</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03328318271067958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0188146836908326</v>
+        <v>0.01884884348077562</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05478351277410806</v>
+        <v>0.05350099847463368</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -784,19 +784,19 @@
         <v>25568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17503</v>
+        <v>16935</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37840</v>
+        <v>36163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02988209810226462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02045570886560523</v>
+        <v>0.01979224872054271</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04422492539554976</v>
+        <v>0.04226468563023947</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>21798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13889</v>
+        <v>14781</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32541</v>
+        <v>32000</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04959720865119693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03160213689589748</v>
+        <v>0.03363178324649486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07404031020851365</v>
+        <v>0.07280903747447386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -834,19 +834,19 @@
         <v>12861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7014</v>
+        <v>7043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21852</v>
+        <v>21005</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03090726194799748</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01685576655200239</v>
+        <v>0.01692603979051884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05251187516461207</v>
+        <v>0.05047799917769976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -855,19 +855,19 @@
         <v>34660</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25182</v>
+        <v>23937</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48458</v>
+        <v>47721</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04050747771328465</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0294303278468297</v>
+        <v>0.02797533039575022</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05663423629714275</v>
+        <v>0.0557725863014949</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>21542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13190</v>
+        <v>13397</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32901</v>
+        <v>32179</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04901344099927229</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03001106302431746</v>
+        <v>0.03048317760804681</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07485959582529671</v>
+        <v>0.07321769719017632</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -905,19 +905,19 @@
         <v>21866</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14044</v>
+        <v>13987</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32906</v>
+        <v>31431</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05254500761331785</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03374936934702221</v>
+        <v>0.03361269755829114</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07907488727560273</v>
+        <v>0.07553129845934765</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>42</v>
@@ -926,19 +926,19 @@
         <v>43407</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31600</v>
+        <v>31722</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58757</v>
+        <v>59182</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05073099487038594</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03693174874639272</v>
+        <v>0.03707373158221645</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0686711837512286</v>
+        <v>0.06916743441752919</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>384444</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>367713</v>
+        <v>369449</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>396548</v>
+        <v>396152</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8747274865360986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8366572526927835</v>
+        <v>0.8406076028716964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9022673920939019</v>
+        <v>0.9013648853581967</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>359</v>
@@ -976,19 +976,19 @@
         <v>367554</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>353374</v>
+        <v>354095</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>378523</v>
+        <v>380099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8832645477280051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8491890984801023</v>
+        <v>0.8509224853867376</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9096252960401024</v>
+        <v>0.9134117360129869</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>737</v>
@@ -997,19 +997,19 @@
         <v>751998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>731784</v>
+        <v>731047</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>769553</v>
+        <v>771655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8788794293140648</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8552547611880372</v>
+        <v>0.8543937381759888</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8993962016485815</v>
+        <v>0.9018533360523276</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>17668</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10612</v>
+        <v>10803</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28758</v>
+        <v>28630</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0259004301125061</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01555769747288286</v>
+        <v>0.01583642392076367</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04215849018106939</v>
+        <v>0.04197107948178175</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1122,19 +1122,19 @@
         <v>8163</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4017</v>
+        <v>3144</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15595</v>
+        <v>15360</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01352409007875644</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006654162295752056</v>
+        <v>0.005208813443912579</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02583665318141986</v>
+        <v>0.02544695336034335</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -1143,19 +1143,19 @@
         <v>25831</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17691</v>
+        <v>16968</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>39516</v>
+        <v>37036</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02009017285119057</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.013759259641471</v>
+        <v>0.0131968429028914</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03073383432906442</v>
+        <v>0.02880493855587015</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>16728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10599</v>
+        <v>10706</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27227</v>
+        <v>26154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0245232967776063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01553751596283346</v>
+        <v>0.01569440895361046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0399148468897358</v>
+        <v>0.03834173498485997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1193,19 +1193,19 @@
         <v>10070</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5053</v>
+        <v>5008</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17998</v>
+        <v>17291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01668356264100492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008371485601388283</v>
+        <v>0.008296738750174769</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02981777876538372</v>
+        <v>0.02864509967321154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1214,19 +1214,19 @@
         <v>26799</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17804</v>
+        <v>17844</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38036</v>
+        <v>37349</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02084281675930069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01384702855333804</v>
+        <v>0.01387867063943639</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02958258805991469</v>
+        <v>0.02904841780255736</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>26212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16730</v>
+        <v>17281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38522</v>
+        <v>37792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03842578327495823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02452595538203987</v>
+        <v>0.02533437195242231</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05647257443881902</v>
+        <v>0.055402523453371</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1264,19 +1264,19 @@
         <v>6803</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2873</v>
+        <v>2912</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14017</v>
+        <v>14513</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01127115193748761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004759479882841592</v>
+        <v>0.004824116306478482</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02322196317912025</v>
+        <v>0.02404374637976514</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -1285,19 +1285,19 @@
         <v>33015</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22062</v>
+        <v>23061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46724</v>
+        <v>47722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0256776369347123</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01715912319933632</v>
+        <v>0.01793564592366207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03634030536419454</v>
+        <v>0.03711599503167363</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>621527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>603985</v>
+        <v>606311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>635134</v>
+        <v>636071</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9111504898349294</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8854343202300633</v>
+        <v>0.8888447076123341</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9310980814817374</v>
+        <v>0.9324718620307314</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>541</v>
@@ -1335,19 +1335,19 @@
         <v>578576</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>567728</v>
+        <v>567056</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>587553</v>
+        <v>586827</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.958521195342751</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9405504442577517</v>
+        <v>0.9394366511259427</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9733933499479345</v>
+        <v>0.972191306502003</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1144</v>
@@ -1356,19 +1356,19 @@
         <v>1200104</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1180338</v>
+        <v>1180022</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1216634</v>
+        <v>1216494</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9333893734547964</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9180162133693591</v>
+        <v>0.9177707515322631</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9462457832094778</v>
+        <v>0.946137373866646</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>16662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9759</v>
+        <v>9691</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26705</v>
+        <v>27429</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02476298911680645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01450408520473699</v>
+        <v>0.01440275693964035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03968975802289052</v>
+        <v>0.04076512359797882</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1481,19 +1481,19 @@
         <v>9765</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4815</v>
+        <v>4866</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18627</v>
+        <v>17489</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0140380648358105</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00692210723386817</v>
+        <v>0.006995987682483194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0267790755811024</v>
+        <v>0.02514216332269306</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1502,19 +1502,19 @@
         <v>26426</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17227</v>
+        <v>16733</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39021</v>
+        <v>40112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01931135863095834</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01258882726611599</v>
+        <v>0.01222797662280152</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02851514570080334</v>
+        <v>0.02931198666532626</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>11997</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6949</v>
+        <v>6948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20714</v>
+        <v>20261</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01783025611269445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01032721991591084</v>
+        <v>0.01032700504994439</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03078641194094403</v>
+        <v>0.03011231099463066</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -1552,19 +1552,19 @@
         <v>12288</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6271</v>
+        <v>6272</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20658</v>
+        <v>19691</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01766593632983094</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0090150640772859</v>
+        <v>0.009017189200143523</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02969857816070684</v>
+        <v>0.02830745073530812</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>24</v>
@@ -1573,19 +1573,19 @@
         <v>24285</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>16215</v>
+        <v>16281</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>35468</v>
+        <v>35508</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01774673004628911</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01184891961179539</v>
+        <v>0.01189720002767649</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0259185537766593</v>
+        <v>0.02594810306419086</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>16407</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9471</v>
+        <v>9266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26564</v>
+        <v>27188</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02438450643021102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01407677073404887</v>
+        <v>0.01377202550434822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0394799942550877</v>
+        <v>0.04040799684247779</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1623,19 +1623,19 @@
         <v>7834</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3877</v>
+        <v>3012</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14428</v>
+        <v>14627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01126271571119022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005573539442276462</v>
+        <v>0.004330384249118678</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02074208216511531</v>
+        <v>0.02102748272592511</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1644,19 +1644,19 @@
         <v>24241</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16129</v>
+        <v>16278</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35908</v>
+        <v>36054</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01771451488169357</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01178666033079263</v>
+        <v>0.01189505077439664</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02623992686860497</v>
+        <v>0.02634649836930817</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>627777</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>611746</v>
+        <v>612727</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>639447</v>
+        <v>640143</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9330222483402881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9091963316401156</v>
+        <v>0.9106533011510412</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9503652714506006</v>
+        <v>0.9514002999076563</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>624</v>
@@ -1694,19 +1694,19 @@
         <v>665710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>653850</v>
+        <v>653711</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>675659</v>
+        <v>674851</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9570332831231684</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9399826032605507</v>
+        <v>0.9397824516215023</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9713357863583789</v>
+        <v>0.9701735324708649</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1224</v>
@@ -1715,19 +1715,19 @@
         <v>1293487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1274756</v>
+        <v>1274472</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1308849</v>
+        <v>1309708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.945227396441059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9315398462493432</v>
+        <v>0.9313319127066185</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9564535078934754</v>
+        <v>0.9570808781404992</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>11578</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6360</v>
+        <v>5780</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20399</v>
+        <v>20567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01903354218753709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01045514680898337</v>
+        <v>0.009501850086807652</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.033533638210596</v>
+        <v>0.03381016604878256</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1840,19 +1840,19 @@
         <v>4109</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11257</v>
+        <v>11530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006737576132610531</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00168183723715363</v>
+        <v>0.00168462144713414</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01846063309490275</v>
+        <v>0.0189079476735759</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1861,19 +1861,19 @@
         <v>15687</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8984</v>
+        <v>8740</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26205</v>
+        <v>24927</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0128779809096811</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00737514183174212</v>
+        <v>0.007175326955545069</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02151287727149993</v>
+        <v>0.02046368616271199</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>11709</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5025</v>
+        <v>5750</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22375</v>
+        <v>21016</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01924871153707882</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008260767019747017</v>
+        <v>0.009452180580929437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03678290689700827</v>
+        <v>0.03454884602037425</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1911,19 +1911,19 @@
         <v>7420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15264</v>
+        <v>14140</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01216733590592816</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005115975908718758</v>
+        <v>0.005114484261740763</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02503162388419573</v>
+        <v>0.02318789619853512</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -1932,19 +1932,19 @@
         <v>19129</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11547</v>
+        <v>11324</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30628</v>
+        <v>29356</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01570365932773255</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00947985201749486</v>
+        <v>0.009296277724114713</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02514412875032785</v>
+        <v>0.02409980286581729</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>12506</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6323</v>
+        <v>6333</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20993</v>
+        <v>22164</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02055874360860644</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0103943353650488</v>
+        <v>0.01041076197034625</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03451096264086863</v>
+        <v>0.0364367108436037</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1982,19 +1982,19 @@
         <v>9458</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4194</v>
+        <v>5081</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17217</v>
+        <v>17825</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01551031176839667</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00687772192324307</v>
+        <v>0.008332862876629148</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02823379909063565</v>
+        <v>0.02923030596165184</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -2003,19 +2003,19 @@
         <v>21964</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13466</v>
+        <v>14433</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33390</v>
+        <v>32198</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01803141623874602</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01105505977668508</v>
+        <v>0.01184834024164163</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02741184261144984</v>
+        <v>0.02643253726112101</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>572508</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>559804</v>
+        <v>558806</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>583686</v>
+        <v>582976</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9411590026667777</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9202741011821771</v>
+        <v>0.9186335380182096</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9595352255191287</v>
+        <v>0.9583672425408817</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>514</v>
@@ -2053,19 +2053,19 @@
         <v>588816</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>577641</v>
+        <v>577156</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>597163</v>
+        <v>596374</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9655847761930646</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9472580300593515</v>
+        <v>0.9464628071078125</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.979272441322467</v>
+        <v>0.9779776788615812</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1024</v>
@@ -2074,19 +2074,19 @@
         <v>1161324</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1144417</v>
+        <v>1145504</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1175450</v>
+        <v>1175997</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9533869435238403</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9395071815522095</v>
+        <v>0.9403992100103528</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9649832522897013</v>
+        <v>0.9654327105004443</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>9160</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4407</v>
+        <v>4211</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17631</v>
+        <v>16663</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02149753954977013</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01034345791554726</v>
+        <v>0.009883014909426658</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04138000447850276</v>
+        <v>0.03910731844185279</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5285</v>
+        <v>5387</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002468676301659367</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01220572695456444</v>
+        <v>0.01244078897353437</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -2220,19 +2220,19 @@
         <v>10229</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5107</v>
+        <v>5164</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18499</v>
+        <v>18007</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01190668659441421</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005944916701610911</v>
+        <v>0.006011597295265506</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02153336810162231</v>
+        <v>0.02096130005417654</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>6613</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2229</v>
+        <v>3233</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13370</v>
+        <v>13970</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01552082163038324</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005230627734500144</v>
+        <v>0.007587019100156809</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03137876612720318</v>
+        <v>0.03278602452144785</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2273,16 +2273,16 @@
         <v>950</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8929</v>
+        <v>8743</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007357310018150344</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00219378658367379</v>
+        <v>0.002192969976620535</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02062196105026934</v>
+        <v>0.02019226871500994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2291,19 +2291,19 @@
         <v>9799</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4440</v>
+        <v>4502</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17827</v>
+        <v>17733</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01140628055394561</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005168898278176027</v>
+        <v>0.005240366140962272</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0207518240438513</v>
+        <v>0.02064173727532397</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>12415</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6212</v>
+        <v>7238</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20653</v>
+        <v>21800</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02913829112926723</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01457838097199995</v>
+        <v>0.01698753187340194</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04847236941642222</v>
+        <v>0.05116281621649901</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2341,19 +2341,19 @@
         <v>4228</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10372</v>
+        <v>10540</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009765172959565171</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002461387560830816</v>
+        <v>0.002454230370507246</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02395449469687798</v>
+        <v>0.0243422061124355</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2362,19 +2362,19 @@
         <v>16643</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10349</v>
+        <v>9492</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26884</v>
+        <v>25089</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01937392815972444</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01204662414147989</v>
+        <v>0.01104878466908443</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03129432607574778</v>
+        <v>0.02920476833742711</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>397894</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>385235</v>
+        <v>386350</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>407179</v>
+        <v>406532</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9338433476905794</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9041343467689164</v>
+        <v>0.9067506329619445</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9556358134392543</v>
+        <v>0.9541173866502249</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>384</v>
@@ -2412,19 +2412,19 @@
         <v>424499</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>416996</v>
+        <v>417291</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>428955</v>
+        <v>429679</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9804088407206251</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9630792307231237</v>
+        <v>0.9637617021542692</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9906999347239209</v>
+        <v>0.9923712602342784</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>747</v>
@@ -2433,19 +2433,19 @@
         <v>822394</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>808235</v>
+        <v>809479</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>833079</v>
+        <v>833685</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9573131046919158</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9408309238409288</v>
+        <v>0.9422791159037531</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9697503602657102</v>
+        <v>0.9704565596007989</v>
       </c>
     </row>
     <row r="28">
@@ -2537,19 +2537,19 @@
         <v>5059</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11108</v>
+        <v>11067</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01688582040424713</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006585939250492621</v>
+        <v>0.006590716498419419</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03707331745107519</v>
+        <v>0.03693590147783302</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4961</v>
+        <v>5115</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003016132082799698</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01504941729094631</v>
+        <v>0.01551689406894824</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2579,19 +2579,19 @@
         <v>6054</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2020</v>
+        <v>2069</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12198</v>
+        <v>12981</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009620091048020666</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003210171962244633</v>
+        <v>0.003288009492071438</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01938430167775685</v>
+        <v>0.02062831724871732</v>
       </c>
     </row>
     <row r="30">
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4956</v>
+        <v>4938</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.003278231301887724</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01653929778803545</v>
+        <v>0.01648113458410574</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6641</v>
+        <v>6717</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005838551972163074</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02014686978945342</v>
+        <v>0.02037676997877297</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2650,19 +2650,19 @@
         <v>2907</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7735</v>
+        <v>7691</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004619472476471788</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001489977126214425</v>
+        <v>0.001484006139725135</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01229211545831609</v>
+        <v>0.01222277057758154</v>
       </c>
     </row>
     <row r="31">
@@ -2679,19 +2679,19 @@
         <v>6860</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2913</v>
+        <v>2723</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15812</v>
+        <v>15026</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02289635262147964</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009721859006927808</v>
+        <v>0.009089022393237828</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05277299842697808</v>
+        <v>0.05014879932075863</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2700,19 +2700,19 @@
         <v>2957</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8286</v>
+        <v>9902</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008969835899862425</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002889356599249157</v>
+        <v>0.002890004433296419</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02513725237182354</v>
+        <v>0.03003860995272025</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -2721,19 +2721,19 @@
         <v>9817</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4951</v>
+        <v>4568</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19366</v>
+        <v>18032</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01560085332624579</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.007867807443237854</v>
+        <v>0.007258482960291576</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03077504875085298</v>
+        <v>0.02865550462009252</v>
       </c>
     </row>
     <row r="32">
@@ -2750,19 +2750,19 @@
         <v>286723</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>277817</v>
+        <v>278245</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>292863</v>
+        <v>292845</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9569395956723855</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9272161801511256</v>
+        <v>0.9286440077971695</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9774316940995409</v>
+        <v>0.9773731482328509</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>314</v>
@@ -2771,19 +2771,19 @@
         <v>323774</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>317155</v>
+        <v>316823</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>327017</v>
+        <v>327625</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9821754800451749</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9620973826215963</v>
+        <v>0.9610887261769121</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9920128912503924</v>
+        <v>0.9938565800727414</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>574</v>
@@ -2792,19 +2792,19 @@
         <v>610497</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>599228</v>
+        <v>600889</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>618045</v>
+        <v>618088</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9701595831492618</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9522513201180883</v>
+        <v>0.9548907782665458</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9821533923715876</v>
+        <v>0.9822224509002511</v>
       </c>
     </row>
     <row r="33">
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5604</v>
+        <v>4225</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00454354779804159</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02458068975609065</v>
+        <v>0.01853365767820234</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -2917,19 +2917,19 @@
         <v>3337</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9040</v>
+        <v>9080</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0103658518625401</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00331540283311796</v>
+        <v>0.003296452922341028</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02808502602623042</v>
+        <v>0.02820713481042983</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -2938,19 +2938,19 @@
         <v>4373</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10825</v>
+        <v>9915</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007951956437222147</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00196253876043264</v>
+        <v>0.001939967218532611</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01968714852778851</v>
+        <v>0.01803212234520795</v>
       </c>
     </row>
     <row r="35">
@@ -2967,19 +2967,19 @@
         <v>3133</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1026</v>
+        <v>996</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8558</v>
+        <v>8335</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01374100279380051</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004502057851220972</v>
+        <v>0.004369457077497253</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03754066640296209</v>
+        <v>0.03656185281050321</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2988,19 +2988,19 @@
         <v>4353</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10962</v>
+        <v>10569</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01352386513967251</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003433269925866828</v>
+        <v>0.003390717083211764</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03405470120642425</v>
+        <v>0.03283235048966454</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -3009,19 +3009,19 @@
         <v>7486</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3219</v>
+        <v>3250</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15946</v>
+        <v>15203</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01361388922363608</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005854142884394301</v>
+        <v>0.00591084971948867</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02899994126978667</v>
+        <v>0.02764859459196704</v>
       </c>
     </row>
     <row r="36">
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5759</v>
+        <v>6423</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.005063701627664013</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02526357101871744</v>
+        <v>0.02817466624749013</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5693</v>
+        <v>6370</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00351871197980583</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01768527256216642</v>
+        <v>0.01979024121786171</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7576</v>
+        <v>7908</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.004159256238885108</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01377857388829489</v>
+        <v>0.01438217921356119</v>
       </c>
     </row>
     <row r="37">
@@ -3109,19 +3109,19 @@
         <v>222649</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>216760</v>
+        <v>216157</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>225907</v>
+        <v>225905</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9766517477804939</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.950819282585073</v>
+        <v>0.948173062247668</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9909401087042936</v>
+        <v>0.9909339220765987</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>281</v>
@@ -3130,19 +3130,19 @@
         <v>313072</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>305187</v>
+        <v>305451</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>317544</v>
+        <v>317576</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9725915710179815</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9480948985981756</v>
+        <v>0.9489139360175967</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9864834809998113</v>
+        <v>0.9865814424744721</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>479</v>
@@ -3151,19 +3151,19 @@
         <v>535721</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>525695</v>
+        <v>525191</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>542132</v>
+        <v>542176</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9742748981002567</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9560412830477487</v>
+        <v>0.9551245752526077</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9859341203626079</v>
+        <v>0.9860154496309639</v>
       </c>
     </row>
     <row r="38">
@@ -3255,19 +3255,19 @@
         <v>72880</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>56600</v>
+        <v>57249</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>93032</v>
+        <v>90758</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02171340909887982</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01686297499514861</v>
+        <v>0.01705637277193886</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02771732790563288</v>
+        <v>0.02703966180502753</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>39</v>
@@ -3276,19 +3276,19 @@
         <v>41287</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>29400</v>
+        <v>30277</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>55559</v>
+        <v>58134</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01210873328162763</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.008622653760502925</v>
+        <v>0.008879723897195929</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01629451895406284</v>
+        <v>0.0170498752797974</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>109</v>
@@ -3297,19 +3297,19 @@
         <v>114167</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>93924</v>
+        <v>94451</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>136021</v>
+        <v>136816</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01687330238178529</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01388149517211777</v>
+        <v>0.01395936706123263</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02010321497366082</v>
+        <v>0.02022078414995938</v>
       </c>
     </row>
     <row r="40">
@@ -3326,19 +3326,19 @@
         <v>72960</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>58020</v>
+        <v>56711</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>91811</v>
+        <v>90929</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02173724148704625</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01728599865363804</v>
+        <v>0.01689619007666913</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02735360481423071</v>
+        <v>0.0270908520041035</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>51</v>
@@ -3347,19 +3347,19 @@
         <v>52103</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>38518</v>
+        <v>39253</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>67525</v>
+        <v>67635</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0152810842131668</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01129657511719369</v>
+        <v>0.01151229784309171</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01980393785316765</v>
+        <v>0.01983636014947548</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>122</v>
@@ -3368,19 +3368,19 @@
         <v>125064</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>104820</v>
+        <v>104273</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>149025</v>
+        <v>148665</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01848377507313635</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01549180808672622</v>
+        <v>0.0154110302557988</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02202516508999753</v>
+        <v>0.02197196622273516</v>
       </c>
     </row>
     <row r="41">
@@ -3397,19 +3397,19 @@
         <v>97096</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>78635</v>
+        <v>77108</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>118819</v>
+        <v>118572</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02892807322355203</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02342793216745951</v>
+        <v>0.02297298839097553</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03540009675011888</v>
+        <v>0.03532653324696285</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>53</v>
@@ -3418,19 +3418,19 @@
         <v>54279</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>39215</v>
+        <v>41015</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>69958</v>
+        <v>70724</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01591921479149345</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01150124619962822</v>
+        <v>0.01202910671197018</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02051738348929891</v>
+        <v>0.0207422206116163</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>145</v>
@@ -3439,19 +3439,19 @@
         <v>151375</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>127155</v>
+        <v>129169</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>178302</v>
+        <v>176906</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02237248881063094</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01879283410414363</v>
+        <v>0.01909050985742674</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02635215906669771</v>
+        <v>0.02614584548587452</v>
       </c>
     </row>
     <row r="42">
@@ -3468,19 +3468,19 @@
         <v>3113523</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3080722</v>
+        <v>3081053</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3143227</v>
+        <v>3143703</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9276212761905219</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9178489265455688</v>
+        <v>0.9179475696008591</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9364712924673427</v>
+        <v>0.9366130594839742</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3017</v>
@@ -3489,19 +3489,19 @@
         <v>3262002</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3237071</v>
+        <v>3237947</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3283634</v>
+        <v>3285766</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9566909677137121</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.949379112281715</v>
+        <v>0.9496360469461345</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9630352187863002</v>
+        <v>0.9636604673991941</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5929</v>
@@ -3510,19 +3510,19 @@
         <v>6375525</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6333612</v>
+        <v>6339048</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6414265</v>
+        <v>6414669</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9422704337344474</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9360758194385109</v>
+        <v>0.9368792168294743</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9479960038514166</v>
+        <v>0.9480556542536008</v>
       </c>
     </row>
     <row r="43">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6078</v>
+        <v>6765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005026643614409892</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01594375740153785</v>
+        <v>0.01774726316392113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7141</v>
+        <v>6437</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002424583080722106</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009036280700222398</v>
+        <v>0.008144633294637764</v>
       </c>
     </row>
     <row r="5">
@@ -3920,19 +3920,19 @@
         <v>2993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8373</v>
+        <v>8021</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007316963012364059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00226655092442452</v>
+        <v>0.00227307897578924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02046639648851064</v>
+        <v>0.01960564865357224</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>2993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8533</v>
+        <v>8154</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003787652784125405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001176634051984295</v>
+        <v>0.001174846641451643</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01079772805178991</v>
+        <v>0.01031777846965969</v>
       </c>
     </row>
     <row r="6">
@@ -3983,19 +3983,19 @@
         <v>8406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3528</v>
+        <v>3256</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16460</v>
+        <v>17599</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02054896375648711</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008624913552064335</v>
+        <v>0.007960010435613766</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04023469937643056</v>
+        <v>0.04301848745704726</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -4004,19 +4004,19 @@
         <v>3794</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1008</v>
+        <v>924</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8592</v>
+        <v>8822</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009953325018361802</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00264353854867723</v>
+        <v>0.002424975159358367</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02254060002444215</v>
+        <v>0.02314439427660269</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -4025,19 +4025,19 @@
         <v>12201</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5965</v>
+        <v>6417</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22121</v>
+        <v>21027</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01543819633699934</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007548479623022099</v>
+        <v>0.008120426411926049</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02799156736776004</v>
+        <v>0.02660714565768183</v>
       </c>
     </row>
     <row r="7">
@@ -4054,19 +4054,19 @@
         <v>397695</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>388989</v>
+        <v>387972</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>403235</v>
+        <v>403283</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9721340732311489</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9508535329332138</v>
+        <v>0.9483675114989643</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9856756835605484</v>
+        <v>0.9857927692110149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>383</v>
@@ -4075,19 +4075,19 @@
         <v>375482</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>369690</v>
+        <v>368949</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>378533</v>
+        <v>379178</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9850200313672283</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.969826371436781</v>
+        <v>0.9678812694518276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9930248474924425</v>
+        <v>0.9947178017660878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>756</v>
@@ -4096,19 +4096,19 @@
         <v>773177</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>761706</v>
+        <v>763826</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>780165</v>
+        <v>780570</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9783495677981532</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9638347017596357</v>
+        <v>0.9665168891823157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9871914909542647</v>
+        <v>0.9877046746801073</v>
       </c>
     </row>
     <row r="8">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9848</v>
+        <v>10021</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004676113522877179</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01681845817198627</v>
+        <v>0.01711290356010081</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5034</v>
+        <v>5050</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001816007434020753</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.00908898142116381</v>
+        <v>0.009118588839417276</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -4242,19 +4242,19 @@
         <v>3744</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10880</v>
+        <v>11711</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003285893255377009</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0008626297043666673</v>
+        <v>0.0008610500989778946</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.009549395768821842</v>
+        <v>0.01027852024212337</v>
       </c>
     </row>
     <row r="10">
@@ -4284,19 +4284,19 @@
         <v>2849</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7666</v>
+        <v>7509</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005143697628321228</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001666600437519081</v>
+        <v>0.001662108903013827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01384254961155448</v>
+        <v>0.01355823331796425</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -4305,19 +4305,19 @@
         <v>2849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8429</v>
+        <v>7590</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002500212394444397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000808613466805766</v>
+        <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007397783978922622</v>
+        <v>0.006661115708180159</v>
       </c>
     </row>
     <row r="11">
@@ -4334,19 +4334,19 @@
         <v>12808</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7128</v>
+        <v>6847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22200</v>
+        <v>21576</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02187371739634298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01217289404710865</v>
+        <v>0.01169293593399123</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03791197081002752</v>
+        <v>0.0368469858983479</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -4355,19 +4355,19 @@
         <v>3772</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8575</v>
+        <v>8566</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006809998397392081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00170379013025128</v>
+        <v>0.001683835596620756</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01548369202251679</v>
+        <v>0.01546708595574225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -4376,19 +4376,19 @@
         <v>16580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9649</v>
+        <v>9759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25464</v>
+        <v>25206</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01455165072970328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008468176773398334</v>
+        <v>0.008565081119730568</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02234863057037291</v>
+        <v>0.0221219998403364</v>
       </c>
     </row>
     <row r="12">
@@ -4405,19 +4405,19 @@
         <v>570016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>559803</v>
+        <v>560462</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>576904</v>
+        <v>577132</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9734501690807799</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9560087839140983</v>
+        <v>0.9571338241646214</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9852125113775219</v>
+        <v>0.9856016244339781</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>561</v>
@@ -4426,19 +4426,19 @@
         <v>546200</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>538684</v>
+        <v>539573</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>550902</v>
+        <v>550063</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9862302965402659</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9726596264266332</v>
+        <v>0.9742646994214832</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9947200447621093</v>
+        <v>0.9932051557639245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1109</v>
@@ -4447,19 +4447,19 @@
         <v>1116216</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1105640</v>
+        <v>1104926</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1124189</v>
+        <v>1124382</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9796622436204753</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9703799218129444</v>
+        <v>0.9697534534247096</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9866592753842093</v>
+        <v>0.9868284744509297</v>
       </c>
     </row>
     <row r="13">
@@ -4564,19 +4564,19 @@
         <v>3284</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10114</v>
+        <v>9460</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005029856484559937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001387959407218322</v>
+        <v>0.00139332068692171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01548851176827316</v>
+        <v>0.01448704226807487</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -4585,19 +4585,19 @@
         <v>3284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9809</v>
+        <v>9190</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002505513509917875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0006925258468871854</v>
+        <v>0.0006920171662768614</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007482478846454277</v>
+        <v>0.007010326835224013</v>
       </c>
     </row>
     <row r="15">
@@ -4614,19 +4614,19 @@
         <v>4118</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1064</v>
+        <v>1208</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10536</v>
+        <v>9893</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006259694196581882</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001616700721942109</v>
+        <v>0.001835534357125317</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01601518994997679</v>
+        <v>0.01503809360070724</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4648,19 +4648,19 @@
         <v>4118</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1217</v>
+        <v>1053</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10332</v>
+        <v>10167</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003141563803471352</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0009284647693988987</v>
+        <v>0.0008030271535579898</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.007882046668702245</v>
+        <v>0.007756204874788641</v>
       </c>
     </row>
     <row r="16">
@@ -4677,19 +4677,19 @@
         <v>7962</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3043</v>
+        <v>3894</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15019</v>
+        <v>15002</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01210204540643156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004625140171621997</v>
+        <v>0.0059187651034016</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02282938797935134</v>
+        <v>0.02280267600971658</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4698,19 +4698,19 @@
         <v>3724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9573</v>
+        <v>9110</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005703295970387135</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001428851306866665</v>
+        <v>0.001455264670488075</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01465972748037531</v>
+        <v>0.01395174628018046</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -4719,19 +4719,19 @@
         <v>11686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6091</v>
+        <v>6513</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20376</v>
+        <v>20009</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008914647672956995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004646846332779004</v>
+        <v>0.004968077955628078</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01554393962708719</v>
+        <v>0.01526389146286224</v>
       </c>
     </row>
     <row r="17">
@@ -4748,19 +4748,19 @@
         <v>645809</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>637062</v>
+        <v>636621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>651216</v>
+        <v>650944</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9816382603969865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9683421503768491</v>
+        <v>0.967672685792715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.989856932787566</v>
+        <v>0.9894430426393173</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>650</v>
@@ -4769,19 +4769,19 @@
         <v>645973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>637787</v>
+        <v>638802</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>650068</v>
+        <v>650188</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9892668475450529</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9767304955895086</v>
+        <v>0.978284909791853</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9955373821009701</v>
+        <v>0.9957219007063566</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1265</v>
@@ -4790,19 +4790,19 @@
         <v>1291782</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1281645</v>
+        <v>1281637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1299249</v>
+        <v>1299258</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9854382750136538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9777051962152065</v>
+        <v>0.9776990773322679</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9911340018139788</v>
+        <v>0.9911406983132478</v>
       </c>
     </row>
     <row r="18">
@@ -4907,19 +4907,19 @@
         <v>3091</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9220</v>
+        <v>8330</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004887037888252033</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001563966957829859</v>
+        <v>0.001560514463697524</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01457497022559166</v>
+        <v>0.01316808487090794</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -4928,19 +4928,19 @@
         <v>3091</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8479</v>
+        <v>8064</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002427752375007533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0007788588271639145</v>
+        <v>0.0007731912602307165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006658576286148898</v>
+        <v>0.006332509393529406</v>
       </c>
     </row>
     <row r="20">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5194</v>
+        <v>5454</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001691042323917262</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008106116987222387</v>
+        <v>0.008510671810575181</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5447</v>
+        <v>6245</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0008509768052935055</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004277710788717826</v>
+        <v>0.004904528608834275</v>
       </c>
     </row>
     <row r="21">
@@ -5020,19 +5020,19 @@
         <v>5192</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13143</v>
+        <v>12421</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008103004750866522</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001746486702171639</v>
+        <v>0.001752160926067124</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02051080847940964</v>
+        <v>0.01938424724810551</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -5041,19 +5041,19 @@
         <v>3268</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9601</v>
+        <v>9862</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005166163789449994</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001569979937175138</v>
+        <v>0.001570666377207826</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01517849998364857</v>
+        <v>0.01559088011241175</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -5062,19 +5062,19 @@
         <v>8460</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3407</v>
+        <v>3274</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18149</v>
+        <v>16694</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006644059110965095</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002675930984281422</v>
+        <v>0.002570887584206049</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0142526858308523</v>
+        <v>0.01311013291060817</v>
       </c>
     </row>
     <row r="22">
@@ -5091,19 +5091,19 @@
         <v>634509</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>626296</v>
+        <v>626334</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>638610</v>
+        <v>638612</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9902059529252162</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9773887773501692</v>
+        <v>0.97744764101361</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9966058177875801</v>
+        <v>0.9966086167118815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>581</v>
@@ -5112,19 +5112,19 @@
         <v>626210</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>619041</v>
+        <v>619786</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>629614</v>
+        <v>630455</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9899467983222979</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.978614231797664</v>
+        <v>0.9797922021088176</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9953289868271247</v>
+        <v>0.9966573091475786</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1153</v>
@@ -5133,19 +5133,19 @@
         <v>1260719</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1250798</v>
+        <v>1251540</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1266805</v>
+        <v>1267163</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9900772117087339</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9822863969798223</v>
+        <v>0.9828689575010682</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9948566882685296</v>
+        <v>0.9951379201309117</v>
       </c>
     </row>
     <row r="23">
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5514</v>
+        <v>5736</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002357061919836877</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01186764269781742</v>
+        <v>0.01234508605982266</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5495</v>
+        <v>5887</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001166273000636854</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.00585185545403303</v>
+        <v>0.006269202903501159</v>
       </c>
     </row>
     <row r="25">
@@ -5347,19 +5347,19 @@
         <v>4476</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11033</v>
+        <v>10964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009632699236637496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002507271675141521</v>
+        <v>0.002474625551705852</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02374660848068405</v>
+        <v>0.02359838583781009</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6031</v>
+        <v>6605</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002324750969563685</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01271226775365073</v>
+        <v>0.01392235158975119</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -5389,19 +5389,19 @@
         <v>5578</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2202</v>
+        <v>2181</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13043</v>
+        <v>13404</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005940719935932173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002344954522868402</v>
+        <v>0.002322439231033197</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01388992361274385</v>
+        <v>0.01427462807424008</v>
       </c>
     </row>
     <row r="27">
@@ -5418,7 +5418,7 @@
         <v>459050</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>452127</v>
+        <v>452343</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>462405</v>
@@ -5427,10 +5427,10 @@
         <v>0.9880102388435257</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.97310956393686</v>
+        <v>0.9735735759583419</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9952307760410972</v>
+        <v>0.9952295135092961</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>412</v>
@@ -5439,7 +5439,7 @@
         <v>473285</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>468357</v>
+        <v>467783</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>474388</v>
@@ -5448,7 +5448,7 @@
         <v>0.9976752490304364</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9872877322463502</v>
+        <v>0.9860776484102488</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -5460,19 +5460,19 @@
         <v>932335</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>924437</v>
+        <v>924459</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>936732</v>
+        <v>936748</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.992893007063431</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9844814120218985</v>
+        <v>0.9845044216073745</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9975755280291543</v>
+        <v>0.9975925264063519</v>
       </c>
     </row>
     <row r="28">
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7393</v>
+        <v>7361</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006533125872944624</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02287684731369873</v>
+        <v>0.02277646876967892</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5113</v>
+        <v>5491</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002958557662466016</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01460678401926386</v>
+        <v>0.0156872540055346</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -5606,19 +5606,19 @@
         <v>3147</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8492</v>
+        <v>8348</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004674576697369507</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0015289874189432</v>
+        <v>0.001527741344486413</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01261493589473065</v>
+        <v>0.01240005929917659</v>
       </c>
     </row>
     <row r="30">
@@ -5682,19 +5682,19 @@
         <v>3055</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9071</v>
+        <v>8196</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.009454588656730104</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.002894551996605145</v>
+        <v>0.002904982198729607</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02806976257070897</v>
+        <v>0.02536135841237737</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5410</v>
+        <v>6234</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003082009199308401</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01545549075079276</v>
+        <v>0.01781028453380181</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -5724,19 +5724,19 @@
         <v>4134</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1046</v>
+        <v>1061</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9580</v>
+        <v>10447</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006141250765412529</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001554158320811203</v>
+        <v>0.001575990859904033</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0142302493230644</v>
+        <v>0.01551816066453254</v>
       </c>
     </row>
     <row r="32">
@@ -5753,19 +5753,19 @@
         <v>318008</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>311813</v>
+        <v>311389</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>321177</v>
+        <v>321130</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9840122854703253</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9648432412074707</v>
+        <v>0.9635308393452884</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9938161843304651</v>
+        <v>0.9936734915226485</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>327</v>
@@ -5774,7 +5774,7 @@
         <v>347904</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>343446</v>
+        <v>343520</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>350018</v>
@@ -5783,7 +5783,7 @@
         <v>0.9939594331382255</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9812248727146022</v>
+        <v>0.9814350871058427</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -5795,19 +5795,19 @@
         <v>665912</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>658810</v>
+        <v>658803</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>670135</v>
+        <v>670084</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9891841725372179</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9786342545396743</v>
+        <v>0.9786237059982986</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9954581006468473</v>
+        <v>0.9953818406013386</v>
       </c>
     </row>
     <row r="33">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9251</v>
+        <v>8165</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007252734038746986</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02534920750753749</v>
+        <v>0.02237281944100491</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8106</v>
+        <v>9408</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.00440031275899636</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01347565863994206</v>
+        <v>0.01564087436181305</v>
       </c>
     </row>
     <row r="37">
@@ -6069,7 +6069,7 @@
         <v>362299</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>355695</v>
+        <v>356781</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>364946</v>
@@ -6078,7 +6078,7 @@
         <v>0.9927472659612531</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9746507924924624</v>
+        <v>0.9776271805589952</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -6090,7 +6090,7 @@
         <v>598868</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>593409</v>
+        <v>592107</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>601515</v>
@@ -6099,7 +6099,7 @@
         <v>0.9955996872410037</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9865243413600577</v>
+        <v>0.9843591256381869</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -6194,19 +6194,19 @@
         <v>5945</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1966</v>
+        <v>2076</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>13800</v>
+        <v>13082</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001791797644972946</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0005926349008013749</v>
+        <v>0.0006257089438777457</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.004159415514285202</v>
+        <v>0.003943077988335075</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>10</v>
@@ -6215,19 +6215,19 @@
         <v>10333</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>5247</v>
+        <v>5302</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>18704</v>
+        <v>18961</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.003030337431054958</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.00153878379357481</v>
+        <v>0.00155494010270447</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.005485058592902414</v>
+        <v>0.005560394778751146</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>15</v>
@@ -6236,19 +6236,19 @@
         <v>16278</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>9016</v>
+        <v>9125</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>26789</v>
+        <v>26569</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.002419556523311209</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.001340119382165579</v>
+        <v>0.001356377277279773</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.003981878802300734</v>
+        <v>0.003949298937779891</v>
       </c>
     </row>
     <row r="40">
@@ -6265,19 +6265,19 @@
         <v>8195</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3888</v>
+        <v>4055</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15442</v>
+        <v>15932</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002470120032702818</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001171812928967304</v>
+        <v>0.001222145840767138</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.004654477200613514</v>
+        <v>0.004802272176171159</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -6289,16 +6289,16 @@
         <v>924</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8842</v>
+        <v>7409</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0008354198319530229</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0002710945872043272</v>
+        <v>0.0002710236954901022</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.00259290308095793</v>
+        <v>0.00217277852780847</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -6307,19 +6307,19 @@
         <v>11044</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6034</v>
+        <v>5850</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>19078</v>
+        <v>18894</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001641565652800101</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0008969660472255072</v>
+        <v>0.0008695716154733825</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.00283583141737994</v>
+        <v>0.002808385125263952</v>
       </c>
     </row>
     <row r="41">
@@ -6336,19 +6336,19 @@
         <v>41900</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>28794</v>
+        <v>29173</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>56416</v>
+        <v>56747</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01262925387126182</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0086789589802699</v>
+        <v>0.008793270303462268</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01700466820095743</v>
+        <v>0.01710447917687481</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>19</v>
@@ -6357,19 +6357,19 @@
         <v>19386</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>11598</v>
+        <v>12186</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28861</v>
+        <v>30066</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005685245205615575</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00340139424166884</v>
+        <v>0.003573638999283495</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008463771194224746</v>
+        <v>0.008817343345243147</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>57</v>
@@ -6378,19 +6378,19 @@
         <v>61286</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>47275</v>
+        <v>47068</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>79568</v>
+        <v>80333</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.009109655114642937</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007027047100665106</v>
+        <v>0.006996259745821781</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01182707510118043</v>
+        <v>0.0119408049447257</v>
       </c>
     </row>
     <row r="42">
@@ -6407,19 +6407,19 @@
         <v>3261658</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3244184</v>
+        <v>3246140</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3276182</v>
+        <v>3275242</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9831088284510624</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9778418540884354</v>
+        <v>0.9784313482201006</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9874865286024649</v>
+        <v>0.987203099644047</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3186</v>
@@ -6428,19 +6428,19 @@
         <v>3377353</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3365037</v>
+        <v>3364636</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3387310</v>
+        <v>3387550</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9904489975313765</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9868373098160235</v>
+        <v>0.9867196767379277</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9933689594411859</v>
+        <v>0.9934393664171138</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6289</v>
@@ -6449,19 +6449,19 @@
         <v>6639011</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6618362</v>
+        <v>6615057</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6656704</v>
+        <v>6655471</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9868292227092458</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9837599273001675</v>
+        <v>0.9832687083505374</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9894591868829222</v>
+        <v>0.9892757816707595</v>
       </c>
     </row>
     <row r="43">
